--- a/data/topology_entsoeTP.xlsx
+++ b/data/topology_entsoeTP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nordicrsc-my.sharepoint.com/personal/jlm_nordic-rcc_net/Documents/Dokumenter/topology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{F56D2595-EAF7-462A-8AEC-874D57FCD912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BF705DD-07EE-4145-991D-A44916C25820}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="8_{F56D2595-EAF7-462A-8AEC-874D57FCD912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63E9FACB-A8A8-4528-B442-2587E95D6280}"/>
   <bookViews>
-    <workbookView xWindow="34980" yWindow="-45" windowWidth="19125" windowHeight="10035" xr2:uid="{DC28D5C7-A0DC-4F92-BDCD-53B11DDBC3D8}"/>
+    <workbookView xWindow="41130" yWindow="-360" windowWidth="14340" windowHeight="7245" xr2:uid="{DC28D5C7-A0DC-4F92-BDCD-53B11DDBC3D8}"/>
   </bookViews>
   <sheets>
     <sheet name="metaData" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="151">
   <si>
     <t>DE_LU-DK1</t>
   </si>
@@ -491,6 +491,12 @@
   </si>
   <si>
     <t>createdDate</t>
+  </si>
+  <si>
+    <t>topologyType</t>
+  </si>
+  <si>
+    <t>ntcMarket</t>
   </si>
 </sst>
 </file>
@@ -648,9 +654,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="9" tint="0.39997558519241921"/>
@@ -803,6 +806,9 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
@@ -819,20 +825,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B42C032-9561-4B24-B880-EA883577D4FB}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{5B42C032-9561-4B24-B880-EA883577D4FB}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B42C032-9561-4B24-B880-EA883577D4FB}" name="Table5" displayName="Table5" ref="A1:E2" totalsRowShown="0">
+  <autoFilter ref="A1:E2" xr:uid="{5B42C032-9561-4B24-B880-EA883577D4FB}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1A160AF5-DCA1-47F7-8CCD-A500A3CFD235}" name="name"/>
     <tableColumn id="2" xr3:uid="{512E851A-E307-4A12-B1BE-EE6025716650}" name="createdDate" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{B1F7B250-A491-46A2-8692-A0F3A39566CB}" name="version" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B1F7B250-A491-46A2-8692-A0F3A39566CB}" name="version" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{A106A3C1-D8DD-4FDE-A683-667B65C0FD77}" name="createdBy" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{C5A38D21-D2A3-45B9-BF04-CE58BD7E63B0}" name="topologyType"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CDE7D99D-D8D2-4B65-AF11-7CE4B37BE9BF}" name="Table2" displayName="Table2" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CDE7D99D-D8D2-4B65-AF11-7CE4B37BE9BF}" name="Table2" displayName="Table2" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="A1:E1048576" xr:uid="{CDE7D99D-D8D2-4B65-AF11-7CE4B37BE9BF}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{66D398D1-71CE-4077-A511-8F61183C04F5}" name="shortName"/>
@@ -846,7 +853,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF317263-0A3F-41A4-91E4-417CAD7DC9F8}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF317263-0A3F-41A4-91E4-417CAD7DC9F8}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:D1048576" xr:uid="{FF317263-0A3F-41A4-91E4-417CAD7DC9F8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1C1324AA-1B09-4392-BBF2-E8CD6BD766D0}" name="name"/>
@@ -859,7 +866,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{924298AC-AC88-4E1B-A29B-D46435BE6DE4}" name="Table3" displayName="Table3" ref="A1:C1048575" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{924298AC-AC88-4E1B-A29B-D46435BE6DE4}" name="Table3" displayName="Table3" ref="A1:C1048575" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C1048575" xr:uid="{924298AC-AC88-4E1B-A29B-D46435BE6DE4}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{79D1B68F-4E09-4996-BEB0-B743940CE34A}" name="name"/>
@@ -871,7 +878,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2CB3E495-D30B-420B-B714-9C58F9CB6688}" name="Table4" displayName="Table4" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2CB3E495-D30B-420B-B714-9C58F9CB6688}" name="Table4" displayName="Table4" ref="A1:B1048576" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:B1048576" xr:uid="{2CB3E495-D30B-420B-B714-9C58F9CB6688}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{788EA36A-2635-426E-AAC5-1E574A9F127E}" name="name"/>
@@ -1178,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA18805-B18B-46E7-9CB5-CCDFAD04F9F1}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,7 +1199,7 @@
     <col min="4" max="4" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -1205,8 +1212,11 @@
       <c r="D1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -1218,6 +1228,9 @@
       </c>
       <c r="D2" s="11" t="s">
         <v>133</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
